--- a/successful_results.xlsx
+++ b/successful_results.xlsx
@@ -14818,7 +14818,7 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>6.706</v>
+        <v>6.7</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -20450,7 +20450,7 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>7.539</v>
+        <v>7.5</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="J374" t="n">
-        <v>7.2</v>
+        <v>7.177</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -24867,7 +24867,7 @@
         </is>
       </c>
       <c r="J382" t="n">
-        <v>7.203</v>
+        <v>7.2</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
